--- a/appGreece/config/tables/registrationMember/forms/registrationMember/registrationMember.xlsx
+++ b/appGreece/config/tables/registrationMember/forms/registrationMember/registrationMember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="520" windowWidth="32460" windowHeight="22300" tabRatio="994"/>
+    <workbookView xWindow="12900" yWindow="2700" windowWidth="32460" windowHeight="22300" tabRatio="994"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="145">
   <si>
     <t>clause</t>
   </si>
@@ -397,6 +397,75 @@
   </si>
   <si>
     <t>['COMPLETE', data('first_last_name'), data('id_number')]</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Beneficiary Code</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>id_types_list</t>
+  </si>
+  <si>
+    <t>Registration Number</t>
+  </si>
+  <si>
+    <t>Case Number</t>
+  </si>
+  <si>
+    <t>Asylum Card</t>
+  </si>
+  <si>
+    <t>Police Notes</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>What is your email address?</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>Take a picture of the beneficiary.</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>Vulnerability Criteria:</t>
+  </si>
+  <si>
+    <t>vulnerability_list</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Disability</t>
+  </si>
+  <si>
+    <t>Unaccompanied minors</t>
+  </si>
+  <si>
+    <t>Single-parent family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string </t>
   </si>
 </sst>
 </file>
@@ -555,8 +624,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -666,7 +741,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -688,6 +763,9 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -709,6 +787,9 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1106,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI23"/>
+  <dimension ref="A1:AMI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1328,7 +1409,7 @@
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -1337,10 +1418,14 @@
         <v>28</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="H11"/>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
-      <c r="K11"/>
+      <c r="K11" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12"/>
@@ -1496,6 +1581,9 @@
       <c r="H22" s="1" t="s">
         <v>114</v>
       </c>
+      <c r="K22" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23"/>
@@ -1514,6 +1602,58 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1665,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1695,6 +1835,46 @@
       </c>
       <c r="B2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1893,7 @@
   <dimension ref="A1:AMK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1952,6 +2132,12 @@
       <c r="L13" s="24"/>
     </row>
     <row r="14" spans="1:12">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
@@ -1963,6 +2149,12 @@
       <c r="L14" s="24"/>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
@@ -1974,6 +2166,12 @@
       <c r="L15" s="24"/>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
@@ -2014,16 +2212,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2126,9 +2324,97 @@
         <v>116</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/appGreece/config/tables/registrationMember/forms/registrationMember/registrationMember.xlsx
+++ b/appGreece/config/tables/registrationMember/forms/registrationMember/registrationMember.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="2700" windowWidth="32460" windowHeight="22300" tabRatio="994"/>
+    <workbookView xWindow="8180" yWindow="2920" windowWidth="32460" windowHeight="22300" tabRatio="994" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="147">
   <si>
     <t>clause</t>
   </si>
@@ -465,7 +465,13 @@
     <t>Single-parent family</t>
   </si>
   <si>
-    <t xml:space="preserve">string </t>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>default[0]</t>
   </si>
 </sst>
 </file>
@@ -624,7 +630,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -674,8 +680,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -740,8 +750,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -766,6 +777,8 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -790,6 +803,8 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1189,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -1627,7 +1642,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="C26" s="2" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>137</v>
@@ -1637,6 +1652,9 @@
       </c>
       <c r="H26" s="1" t="s">
         <v>139</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1653,6 +1671,9 @@
       </c>
       <c r="E28" s="4" t="s">
         <v>136</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1892,16 +1913,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="53.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1914,8 +1937,12 @@
       <c r="C1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>146</v>
+      </c>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
@@ -2121,7 +2148,9 @@
       <c r="B13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="44" t="s">
+        <v>118</v>
+      </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40"/>
@@ -2173,7 +2202,9 @@
         <v>137</v>
       </c>
       <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40" t="s">
+        <v>140</v>
+      </c>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
@@ -2215,7 +2246,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
